--- a/app/files/welfare.xlsx
+++ b/app/files/welfare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="type_employee" sheetId="1" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>ฝ่ายวิเคราะห์และพัฒนา</t>
   </si>
   <si>
-    <t>ฝ่า่ยวิเคราะห์และพัฒนาทรัพยากรสารสนเทศ</t>
-  </si>
-  <si>
     <t>ภาควิชาเคมีอุตสาหกรรม</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>faculty_code</t>
+  </si>
+  <si>
+    <t>ฝ่ายวิเคราะห์และพัฒนาทรัพยากรสารสนเทศ</t>
   </si>
 </sst>
 </file>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1173,7 +1173,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>21</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1823,7 +1823,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">

--- a/app/files/welfare.xlsx
+++ b/app/files/welfare.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="90">
   <si>
     <t>type_emp_name</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>ฝ่ายวิเคราะห์และพัฒนาทรัพยากรสารสนเทศ</t>
+  </si>
+  <si>
+    <t>primary_id</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -395,9 +398,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -964,352 +964,616 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="46.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="C1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="C2" s="12" t="str">
+        <f>CONCATENATE(D2,B2)</f>
+        <v>คณะครุศาสตร์อุตสาหกรรมงานบริหารและธุรการ</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="C3" s="12" t="str">
+        <f t="shared" ref="C3:C40" si="0">CONCATENATE(D3,B3)</f>
+        <v>คณะครุศาสตร์อุตสาหกรรมภาควิชาครุศาสตร์เครื่องกล</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="C4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะครุศาสตร์อุตสาหกรรมภาควิชาครุศาสตร์โยธา</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะครุศาสตร์อุตสาหกรรมภาควิชาครุศาสตร์ไฟฟ้า</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="C6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะครุศาสตร์อุตสาหกรรมภาควิชาคอมพิวเตอร์ศึกษา</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะครุศาสตร์อุตสาหกรรมภาควิชาบริหารเทคนิคศึกษา</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="C8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะครุศาสตร์อุตสาหกรรมสำนักงานคณบดี</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="C9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะครุศาสตร์อุตสาหกรรมสำนักงานผู้อำนวยการ</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="C10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะครุศาสตร์อุตสาหกรรมภาควิชาครุศาสตร์เทคโนโลยี</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="C11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะเทคโนโลยีสารสนเทศภาควิชาเทคโนโลยีสารสนเทศ</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="C12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะเทคโนโลยีสารสนเทศภาควิชาการจัดการเทคโนโลยีสารสนเทศ</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="C13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะเทคโนโลยีสารสนเทศสำนักงานคณบดี</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะเทคโนโลยีสารสนเทศสำนักงานผู้อำนวยการ</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>กองงาน มจพ. วิทยาเขตระยองสำนักงานกอง</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>กองงาน มจพ. วิทยาเขตระยองสำนักงานคณบดี</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="C17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>กองงาน มจพ. วิทยาเขตระยองสำนักงานผู้อำนวยการ</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>สำนักหอสมุดกลางฝ่ายเทคโนโลยีสารสนเทศและนวัตกรรมทางการศึกษา</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>สำนักหอสมุดกลางฝ่ายเทคโนโลยีสารสนเทศห้องสมุด</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>สำนักหอสมุดกลางฝ่ายบริการ</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>สำนักหอสมุดกลางฝ่ายบริการสารสนเทศ</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>สำนักหอสมุดกลางฝ่ายวิเคราะห์และพัฒนา</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>สำนักหอสมุดกลางฝ่ายวิเคราะห์และพัฒนาทรัพยากรสารสนเทศ</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="C24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>สำนักหอสมุดกลางสำนักงานคณบดี</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="C25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>สำนักหอสมุดกลางสำนักงานผู้อำนวยการ</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์ภาควิชาเคมีอุตสาหกรรม</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์ภาควิชาเทคโนโลยีชีวภาพ</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์ภาควิชาเทคโนโลยีอุตสาหกรรมเกษตร</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์ภาควิชาเทคโนโลยีอุตสาหกรรมเกษตรอาหารและสิ่งแวดล้อม (AFET)</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์ภาควิชาคณิตศาสตร์</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์ภาควิชาฟิสิกส์อุตสาหกรรมและอุปกรณ์การแพทย์</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์ภาควิชาวิทยาการคอมพิวเตอร์และสารสนเทศ</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์ภาควิชาสถิติประยุกต์</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์สาขาเทคโนโลยีอุตสาหกรรมเกษตร</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="C35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์สำนักงานคณบดี</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="14" t="s">
+      <c r="C36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>คณะวิทยาศาสตร์ประยุกต์สำนักงานผู้อำนวยการ</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>บัณฑิตวิทยาลัยฝ่ายวางแผนพัฒนาและวิจัย</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>บัณฑิตวิทยาลัยฝ่ายวิชาการ</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="C39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>บัณฑิตวิทยาลัยสำนักงานคณบดี</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>65</v>
+      <c r="C40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>บัณฑิตวิทยาลัยสำนักงานผู้อำนวยการ</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1586,7 @@
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1346,13 +1610,17 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="N2" s="6"/>
     </row>
@@ -1360,7 +1628,9 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="N3" s="6"/>
     </row>
@@ -1368,7 +1638,9 @@
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="N4" s="6"/>
     </row>
@@ -1376,7 +1648,9 @@
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" s="6"/>
@@ -1393,7 +1667,9 @@
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" s="6"/>
@@ -1543,26 +1819,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1573,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1584,18 +1869,27 @@
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1606,31 +1900,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1641,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1652,38 +1958,59 @@
     <col min="1" max="1" width="40.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B5" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1694,42 +2021,62 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1740,62 +2087,94 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="B9" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1806,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1818,60 +2197,81 @@
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="C1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="C6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
